--- a/ozone/ozone_VTZP_SHAP.xlsx
+++ b/ozone/ozone_VTZP_SHAP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,59 +447,59 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$(F_{q}^{\text{SCF}})_{0}$</t>
+          <t>$\langle qq \vert qq \rangle$</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.002140429339073427</v>
+        <v>0.001937625719016329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$(\langle qq \vert qq \rangle)_{0}$</t>
+          <t>h$_{q}$</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001517278912802737</v>
+        <v>0.00180864060118571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$(F_{q})_{0}$</t>
+          <t>$\langle ss \vert ss \rangle$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0009706509671318354</v>
+        <v>0.001035071070638346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$(\langle ss \vert ss \rangle)_{0}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0006431575804388386</v>
+        <v>0.0008770657234620971</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -507,38 +507,38 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.000605864524762894</v>
+        <v>0.0006396829785374827</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$(F_{s}^{\text{SCF}})_{0}$</t>
+          <t>$F_{q}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0006010706472624988</v>
+        <v>0.000626197966530385</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0003709000583927174</v>
+        <v>0.0004798126395443188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -546,90 +546,90 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.000333134386694186</v>
+        <v>0.0003322796663412365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>h$_{rs}^{3}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0003072343636750745</v>
+        <v>0.0003055028903050447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FI$_{qs}$</t>
+          <t>h$_{p}^{3}$</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0001943306993678418</v>
+        <v>0.0002632660063876432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001729967348350107</v>
+        <v>0.0002595998031032507</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001663494903085467</v>
+        <v>0.000252864279488083</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>h$_{rs}^{3}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001518128803478445</v>
+        <v>0.0002442773353284123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001418343601324569</v>
+        <v>0.0001549236968925192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -637,753 +637,753 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.000141611966822957</v>
+        <v>0.000154507308060818</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001385302266293855</v>
+        <v>0.0001425535939851936</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$(\eta_{s})_{0}$</t>
+          <t>FI$_{qs}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001364777739829932</v>
+        <v>0.0001406817750971094</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>typ_3</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001237629023295071</v>
+        <v>0.0001134665843523463</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001210539127495282</v>
+        <v>0.0001032461729145279</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>h$_{pq}^{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001103108306108618</v>
+        <v>0.0001020490005635227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$(F_{s})_{0}$</t>
+          <t>h$_{p}^{2}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0001068863887443367</v>
+        <v>9.920542853894162e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.687138676272647e-05</v>
+        <v>9.745303362783342e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>h$_{r}^{3}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.644507019530553e-05</v>
+        <v>9.149893597883744e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.374295540521249e-05</v>
+        <v>9.104284208461759e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.736554071083657e-05</v>
+        <v>8.842577002259805e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.129293719781247e-05</v>
+        <v>8.603171416406053e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>h$_{r}^{1}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6.911889427475007e-05</v>
+        <v>8.521599338118984e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>h$_{pq}^{3}$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.723353693775822e-05</v>
+        <v>8.504089358745965e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.562657680766699e-05</v>
+        <v>8.471282744685506e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>h$_{p}^{0}$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.157155608691623e-05</v>
+        <v>8.428089133537854e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>typ_3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.14135311901302e-05</v>
+        <v>5.75418413443608e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.021104572499061e-05</v>
+        <v>5.604017812598976e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.991933834074361e-05</v>
+        <v>5.005826725274815e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.8026555949549e-05</v>
+        <v>4.6562748939967e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.458002898022411e-05</v>
+        <v>4.321947911738771e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>h$_{pr}^{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.104707482234267e-05</v>
+        <v>4.017560013906002e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.600721184907297e-05</v>
+        <v>3.866822242777167e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>h$_{pr}^{2}$</t>
+          <t>h$_{pr}^{1}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.028430449462309e-05</v>
+        <v>3.852311902771095e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>typ_1</t>
+          <t>h$_{rs}^{2}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.868571234557198e-05</v>
+        <v>3.763062315157591e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>h$_{rs}^{2}$</t>
+          <t>h$_{r}^{2}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.838021177906561e-05</v>
+        <v>3.741154165055566e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>h$_{pq}^{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.796115778284275e-05</v>
+        <v>3.670718150086763e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>typ_0</t>
+          <t>h$_{pr}^{2}$</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.58452301259111e-05</v>
+        <v>3.492152627683246e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.107602218298003e-05</v>
+        <v>3.317026973890381e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>h$_{pq}^{1}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.007894353809803e-05</v>
+        <v>3.236309709194686e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.998659526767784e-05</v>
+        <v>3.234188072127124e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>h$_{pr}^{3}$</t>
+          <t>typ_0</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.981794892861815e-05</v>
+        <v>3.220534902320091e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.933412737106901e-05</v>
+        <v>3.179607545059017e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>h$_{pq}^{0}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.898591790089628e-05</v>
+        <v>3.124020317958182e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>h$_{rs}^{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.80233137135887e-05</v>
+        <v>2.987055654838317e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>h$_{pq}^{2}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.741921937952907e-05</v>
+        <v>2.616808749437337e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.627306731710001e-05</v>
+        <v>2.366008133653784e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.616778309267239e-05</v>
+        <v>2.245952325771408e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.599943309170072e-05</v>
+        <v>2.214306106086805e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.561282569361187e-05</v>
+        <v>2.167975424685456e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>h$_{pq}^{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.512959220614817e-05</v>
+        <v>2.076647726104564e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>h$_{pr}^{3}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.407602122442187e-05</v>
+        <v>2.040051655649031e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$(\eta_{q})_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.37790232756414e-05</v>
+        <v>1.973962973181841e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>h$_{rs}^{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.231947872658287e-05</v>
+        <v>1.839720456289419e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.192751698268464e-05</v>
+        <v>1.754312667441119e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.182010409518956e-05</v>
+        <v>1.744992372942118e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>h$_{r}^{0}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.140520334140419e-05</v>
+        <v>1.647357584344686e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>typ_2</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.043136327136069e-05</v>
+        <v>1.503170121752259e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>h$_{rs}^{0}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.01449004890484e-05</v>
+        <v>1.490609798347398e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>h$_{pq}^{0}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.995349120726976e-05</v>
+        <v>1.452994851823116e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>h$_{p}^{1}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.593875829065586e-05</v>
+        <v>1.408595435543306e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>h$_{pr}^{0}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.177336397496467e-05</v>
+        <v>1.326637950100793e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>typ_2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.165110366533394e-05</v>
+        <v>1.32492859674984e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.149550243201366e-05</v>
+        <v>1.151925568884609e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9.706188066905887e-06</v>
+        <v>1.120551055493248e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>h$_{pr}^{0}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8.568272702610337e-06</v>
+        <v>1.106338829434445e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6.140125157781667e-06</v>
+        <v>1.104540769662399e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5.209314936741335e-06</v>
+        <v>9.35141100819545e-06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1391,293 +1391,423 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5.175529614869053e-06</v>
+        <v>8.861552284655189e-06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4.364142500606093e-06</v>
+        <v>8.673720025870859e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>typ_1</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.112779819704256e-06</v>
+        <v>8.346654685541974e-06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{2}$</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2.544848626269418e-06</v>
+        <v>7.831591349654838e-06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>h$_{rs}^{1}$</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2.010707449981869e-06</v>
+        <v>7.686463699025678e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.916051522760065e-06</v>
+        <v>7.313325169152276e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.676088276849613e-06</v>
+        <v>7.152073600783047e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3.31929727342894e-07</v>
+        <v>5.596708604443655e-06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3.047924341804263e-07</v>
+        <v>4.642058582035926e-06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.702941876534534e-07</v>
+        <v>4.57578990439231e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1.748022540889462e-07</v>
+        <v>3.678623302927784e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\eta_{p})_{2}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.660386270043383e-07</v>
+        <v>2.820158818236587e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.558769694743473e-07</v>
+        <v>7.236682332987166e-07</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.284784653316378e-07</v>
+        <v>5.030216467832856e-07</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.268381223656781e-07</v>
+        <v>4.492603058146206e-07</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.160409045872963e-07</v>
+        <v>3.493665949865625e-07</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.039772353885448e-07</v>
+        <v>2.958633488011782e-07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9.820059829839997e-08</v>
+        <v>2.867914087632116e-07</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\omega_{s})_{0}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>9.051034485941546e-08</v>
+        <v>2.686117488996352e-07</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6.787918370656985e-08</v>
+        <v>2.536953946744533e-07</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>F$_{qs}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.111950593388322e-08</v>
+        <v>1.484196441721641e-07</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\omega_{q})_{0}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.016893703315726e-08</v>
+        <v>1.454413800969881e-07</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>$(\eta_{r})_{1}$</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1.340169798086037e-07</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{0}$</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1.119937935861111e-07</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>$(\omega_{r})_{3}$</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1.082896156285199e-07</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>$(\omega_{r})_{1}$</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>9.842770474993938e-08</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>$(\omega_{p})_{3}$</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>9.67395474781636e-08</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>$\omega_{s}$</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>8.464389606117945e-08</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>$(\omega_{r})_{0}$</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>8.115293956660999e-08</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>$(\omega_{r})_{2}$</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>4.996218753350823e-08</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>$\mathbf{b}$</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>5.643707333098154e-09</v>
+      <c r="C104" t="n">
+        <v>2.739455784978139e-08</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>F$_{qs}$</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1.653074699919062e-08</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>$\omega_{q}$</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>9.888916477771607e-09</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VTZP_SHAP.xlsx
+++ b/ozone/ozone_VTZP_SHAP.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001937625719016329</v>
+        <v>0.001938704654312146</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.00180864060118571</v>
+        <v>0.001803710109890688</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001035071070638346</v>
+        <v>0.001035088239045993</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0008770657234620971</v>
+        <v>0.0008746764030290161</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0006396829785374827</v>
+        <v>0.0006425034248567216</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.000626197966530385</v>
+        <v>0.0006254216268725937</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0004798126395443188</v>
+        <v>0.0004844838835492278</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0003322796663412365</v>
+        <v>0.0003323207519475824</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0003055028903050447</v>
+        <v>0.0003015339861663457</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002632660063876432</v>
+        <v>0.0002688900950297745</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002595998031032507</v>
+        <v>0.0002589310345377318</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.000252864279488083</v>
+        <v>0.0002520259417856764</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0002442773353284123</v>
+        <v>0.000243870380394517</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001549236968925192</v>
+        <v>0.0001556848164592731</v>
       </c>
     </row>
     <row r="16">
@@ -637,33 +637,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.000154507308060818</v>
+        <v>0.0001545997010889183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>FI$_{qs}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001425535939851936</v>
+        <v>0.0001423103612032934</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FI$_{qs}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001406817750971094</v>
+        <v>0.0001421948868851555</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001134665843523463</v>
+        <v>0.000114507345765784</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001032461729145279</v>
+        <v>0.0001030880501990142</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001020490005635227</v>
+        <v>0.000102697543355746</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.920542853894162e-05</v>
+        <v>9.806734096813076e-05</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.745303362783342e-05</v>
+        <v>9.675818715993571e-05</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.149893597883744e-05</v>
+        <v>9.147061939356476e-05</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.104284208461759e-05</v>
+        <v>9.024151954730801e-05</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.842577002259805e-05</v>
+        <v>9.01270292072383e-05</v>
       </c>
     </row>
     <row r="27">
@@ -780,46 +780,46 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.603171416406053e-05</v>
+        <v>8.706430653455434e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>h$_{r}^{1}$</t>
+          <t>h$_{pq}^{3}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.521599338118984e-05</v>
+        <v>8.623885047771349e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>h$_{pq}^{3}$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.504089358745965e-05</v>
+        <v>8.381760074779855e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>h$_{r}^{1}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8.471282744685506e-05</v>
+        <v>8.292721622224805e-05</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.428089133537854e-05</v>
+        <v>8.037467604308206e-05</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.75418413443608e-05</v>
+        <v>5.84772642407592e-05</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.604017812598976e-05</v>
+        <v>5.580633937832813e-05</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.005826725274815e-05</v>
+        <v>5.035543930754101e-05</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.6562748939967e-05</v>
+        <v>4.622498490944102e-05</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.321947911738771e-05</v>
+        <v>4.303701216723522e-05</v>
       </c>
     </row>
     <row r="37">
@@ -910,33 +910,33 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.017560013906002e-05</v>
+        <v>4.00933680793904e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>h$_{pr}^{1}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.866822242777167e-05</v>
+        <v>3.93985192863217e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>h$_{pr}^{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.852311902771095e-05</v>
+        <v>3.938220245037587e-05</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.763062315157591e-05</v>
+        <v>3.785847618168476e-05</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.741154165055566e-05</v>
+        <v>3.735718632354209e-05</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.670718150086763e-05</v>
+        <v>3.682016535592774e-05</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.492152627683246e-05</v>
+        <v>3.465336536838907e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.317026973890381e-05</v>
+        <v>3.354960262928033e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.236309709194686e-05</v>
+        <v>3.317749045911334e-05</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.234188072127124e-05</v>
+        <v>3.273758529706372e-05</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.220534902320091e-05</v>
+        <v>3.189396809146185e-05</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.179607545059017e-05</v>
+        <v>3.169431007659737e-05</v>
       </c>
     </row>
     <row r="49">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.124020317958182e-05</v>
+        <v>3.026457523237839e-05</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.987055654838317e-05</v>
+        <v>2.970712077985179e-05</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.616808749437337e-05</v>
+        <v>2.679478465808833e-05</v>
       </c>
     </row>
     <row r="52">
@@ -1105,33 +1105,33 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.366008133653784e-05</v>
+        <v>2.408877641674579e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.245952325771408e-05</v>
+        <v>2.228140570741054e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.214306106086805e-05</v>
+        <v>2.201299390264378e-05</v>
       </c>
     </row>
     <row r="55">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.167975424685456e-05</v>
+        <v>2.180645335284303e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.076647726104564e-05</v>
+        <v>2.080939581080715e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.040051655649031e-05</v>
+        <v>2.00987294862309e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.973962973181841e-05</v>
+        <v>1.970053035027875e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.839720456289419e-05</v>
+        <v>1.858690295410368e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.754312667441119e-05</v>
+        <v>1.761033833276145e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.744992372942118e-05</v>
+        <v>1.681318649643888e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1235,46 +1235,46 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.647357584344686e-05</v>
+        <v>1.631557703967114e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>h$_{pq}^{0}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.503170121752259e-05</v>
+        <v>1.517861305319297e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>h$_{rs}^{0}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.490609798347398e-05</v>
+        <v>1.484945808915676e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>h$_{pq}^{0}$</t>
+          <t>h$_{rs}^{0}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.452994851823116e-05</v>
+        <v>1.47014404958152e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1287,33 +1287,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.408595435543306e-05</v>
+        <v>1.435039228431074e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>typ_2</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.326637950100793e-05</v>
+        <v>1.33450871774136e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>typ_2</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.32492859674984e-05</v>
+        <v>1.323599717608927e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1326,33 +1326,33 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.151925568884609e-05</v>
+        <v>1.158425953951803e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>h$_{pr}^{0}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.120551055493248e-05</v>
+        <v>1.130295911992864e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>h$_{pr}^{0}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.106338829434445e-05</v>
+        <v>1.112849355532691e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1365,59 +1365,59 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.104540769662399e-05</v>
+        <v>1.099833191123324e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>typ_1</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9.35141100819545e-06</v>
+        <v>9.44343607447516e-06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8.861552284655189e-06</v>
+        <v>9.414035950312546e-06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8.673720025870859e-06</v>
+        <v>9.035766828600858e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>typ_1</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8.346654685541974e-06</v>
+        <v>8.767514992166902e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7.831591349654838e-06</v>
+        <v>7.751695306061154e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1443,33 +1443,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.686463699025678e-06</v>
+        <v>7.535216540333532e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.313325169152276e-06</v>
+        <v>7.176828807840879e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.152073600783047e-06</v>
+        <v>7.142748633419518e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5.596708604443655e-06</v>
+        <v>5.78960967066608e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.642058582035926e-06</v>
+        <v>4.689721919311057e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.57578990439231e-06</v>
+        <v>4.216560724893838e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.678623302927784e-06</v>
+        <v>3.721874837125061e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.820158818236587e-06</v>
+        <v>2.866412982211993e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1547,59 +1547,59 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7.236682332987166e-07</v>
+        <v>7.469917882561944e-07</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5.030216467832856e-07</v>
+        <v>4.850277824350519e-07</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4.492603058146206e-07</v>
+        <v>4.388048685511921e-07</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3.493665949865625e-07</v>
+        <v>3.970861046341413e-07</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2.958633488011782e-07</v>
+        <v>3.447288912136251e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2.867914087632116e-07</v>
+        <v>3.166364654374003e-07</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.686117488996352e-07</v>
+        <v>2.448913531297432e-07</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2.536953946744533e-07</v>
+        <v>1.897078347675845e-07</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.484196441721641e-07</v>
+        <v>1.681696380499523e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1664,98 +1664,98 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.454413800969881e-07</v>
+        <v>1.608402817866535e-07</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.340169798086037e-07</v>
+        <v>1.493286581402958e-07</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.119937935861111e-07</v>
+        <v>1.097021447918392e-07</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.082896156285199e-07</v>
+        <v>1.085983404528688e-07</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9.842770474993938e-08</v>
+        <v>1.059140818972677e-07</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9.67395474781636e-08</v>
+        <v>9.771011340477914e-08</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8.464389606117945e-08</v>
+        <v>9.664703701768427e-08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8.115293956660999e-08</v>
+        <v>7.512980287729398e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1768,33 +1768,33 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>4.996218753350823e-08</v>
+        <v>7.053279425509815e-08</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>F$_{qs}$</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2.739455784978139e-08</v>
+        <v>1.329027444425599e-08</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>F$_{qs}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1.653074699919062e-08</v>
+        <v>1.087513721434198e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9.888916477771607e-09</v>
+        <v>6.75724658050076e-09</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VTZP_SHAP.xlsx
+++ b/ozone/ozone_VTZP_SHAP.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001938704654312146</v>
+        <v>0.00194509764621996</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001803710109890688</v>
+        <v>0.001806405169951488</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001035088239045993</v>
+        <v>0.001030939165310405</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0008746764030290161</v>
+        <v>0.0008744899204508957</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0006425034248567216</v>
+        <v>0.0006352018862609988</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0006254216268725937</v>
+        <v>0.0006286188149934027</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0004844838835492278</v>
+        <v>0.0004868368230681382</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0003323207519475824</v>
+        <v>0.0003313962474878542</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0003015339861663457</v>
+        <v>0.0003044498699009141</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002688900950297745</v>
+        <v>0.0002683088222694</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002589310345377318</v>
+        <v>0.0002593594698316075</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0002520259417856764</v>
+        <v>0.000252806681707469</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.000243870380394517</v>
+        <v>0.0002470983937014804</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001556848164592731</v>
+        <v>0.000155506172445445</v>
       </c>
     </row>
     <row r="16">
@@ -637,33 +637,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001545997010889183</v>
+        <v>0.0001549540278802658</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FI$_{qs}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001423103612032934</v>
+        <v>0.0001427543223523081</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>FI$_{qs}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001421948868851555</v>
+        <v>0.0001406777453182349</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000114507345765784</v>
+        <v>0.0001132686806636267</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001030880501990142</v>
+        <v>0.000103728263892844</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.000102697543355746</v>
+        <v>0.000100844566747294</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.806734096813076e-05</v>
+        <v>9.902569680403246e-05</v>
       </c>
     </row>
     <row r="23">
@@ -728,98 +728,98 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.675818715993571e-05</v>
+        <v>9.683742161502815e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>h$_{r}^{3}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.147061939356476e-05</v>
+        <v>8.935739885445854e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>h$_{r}^{3}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.024151954730801e-05</v>
+        <v>8.793148476700385e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.01270292072383e-05</v>
+        <v>8.731045049528486e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.706430653455434e-05</v>
+        <v>8.729929690544922e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>h$_{pq}^{3}$</t>
+          <t>h$_{r}^{1}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.623885047771349e-05</v>
+        <v>8.508264073544888e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>h$_{pq}^{3}$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.381760074779855e-05</v>
+        <v>8.482727735757262e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>h$_{r}^{1}$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8.292721622224805e-05</v>
+        <v>8.304035830667969e-05</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.037467604308206e-05</v>
+        <v>8.144388374488473e-05</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.84772642407592e-05</v>
+        <v>5.77602566001905e-05</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.580633937832813e-05</v>
+        <v>5.601211829127773e-05</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.035543930754101e-05</v>
+        <v>5.01981901654735e-05</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.622498490944102e-05</v>
+        <v>4.638268573879573e-05</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.303701216723522e-05</v>
+        <v>4.311554710674413e-05</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.00933680793904e-05</v>
+        <v>4.070445902978927e-05</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.93985192863217e-05</v>
+        <v>3.885330499007429e-05</v>
       </c>
     </row>
     <row r="39">
@@ -936,46 +936,46 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.938220245037587e-05</v>
+        <v>3.784229247006348e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>h$_{rs}^{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.785847618168476e-05</v>
+        <v>3.720844953883601e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>h$_{r}^{2}$</t>
+          <t>h$_{rs}^{2}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.735718632354209e-05</v>
+        <v>3.717815880197529e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>h$_{r}^{2}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.682016535592774e-05</v>
+        <v>3.700131861588328e-05</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.465336536838907e-05</v>
+        <v>3.504774087439861e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.354960262928033e-05</v>
+        <v>3.370782852659465e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1014,46 +1014,46 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.317749045911334e-05</v>
+        <v>3.232924699069303e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>typ_0</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.273758529706372e-05</v>
+        <v>3.209007779275085e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>typ_0</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.189396809146185e-05</v>
+        <v>3.203533073389536e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.169431007659737e-05</v>
+        <v>3.164213345520241e-05</v>
       </c>
     </row>
     <row r="49">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.026457523237839e-05</v>
+        <v>3.034945791054597e-05</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.970712077985179e-05</v>
+        <v>2.943404609335781e-05</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.679478465808833e-05</v>
+        <v>2.678073466255247e-05</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.408877641674579e-05</v>
+        <v>2.366151817830605e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1118,33 +1118,33 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.228140570741054e-05</v>
+        <v>2.202977823572696e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.201299390264378e-05</v>
+        <v>2.17615930497546e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.180645335284303e-05</v>
+        <v>2.144556018481902e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.080939581080715e-05</v>
+        <v>2.053014813978082e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.00987294862309e-05</v>
+        <v>2.047007399487397e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.970053035027875e-05</v>
+        <v>1.931317148690808e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.858690295410368e-05</v>
+        <v>1.862987545932772e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.761033833276145e-05</v>
+        <v>1.777275067913309e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.681318649643888e-05</v>
+        <v>1.704935277646223e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1235,46 +1235,46 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.631557703967114e-05</v>
+        <v>1.609666314417677e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>h$_{pq}^{0}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.517861305319297e-05</v>
+        <v>1.49898674812587e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>h$_{rs}^{0}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.484945808915676e-05</v>
+        <v>1.495013778519909e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>h$_{rs}^{0}$</t>
+          <t>h$_{pq}^{0}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.47014404958152e-05</v>
+        <v>1.453603244127391e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.435039228431074e-05</v>
+        <v>1.416397742143847e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.33450871774136e-05</v>
+        <v>1.348391260600136e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.323599717608927e-05</v>
+        <v>1.308480641036284e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.158425953951803e-05</v>
+        <v>1.156695138761045e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.130295911992864e-05</v>
+        <v>1.12419102293991e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.112849355532691e-05</v>
+        <v>1.119905882560219e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.099833191123324e-05</v>
+        <v>1.1162357291741e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9.44343607447516e-06</v>
+        <v>9.381280056516233e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9.414035950312546e-06</v>
+        <v>9.124969217982509e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9.035766828600858e-06</v>
+        <v>9.038984198279314e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8.767514992166902e-06</v>
+        <v>8.733291539230997e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7.751695306061154e-06</v>
+        <v>7.739212165113958e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1443,33 +1443,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.535216540333532e-06</v>
+        <v>7.63096311561106e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.176828807840879e-06</v>
+        <v>7.139091976137434e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.142748633419518e-06</v>
+        <v>7.08190507842165e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5.78960967066608e-06</v>
+        <v>5.761066374722253e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.689721919311057e-06</v>
+        <v>4.56872119437079e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.216560724893838e-06</v>
+        <v>4.472066202883751e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.721874837125061e-06</v>
+        <v>3.738925324421023e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.866412982211993e-06</v>
+        <v>2.902489172849546e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7.469917882561944e-07</v>
+        <v>5.551928990137636e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1560,98 +1560,98 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4.850277824350519e-07</v>
+        <v>4.477981570927126e-07</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4.388048685511921e-07</v>
+        <v>4.375728308215206e-07</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3.970861046341413e-07</v>
+        <v>3.692255639771814e-07</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3.447288912136251e-07</v>
+        <v>3.505646844630095e-07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.166364654374003e-07</v>
+        <v>2.682307745673009e-07</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.448913531297432e-07</v>
+        <v>2.502153056358304e-07</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.897078347675845e-07</v>
+        <v>2.121715547427413e-07</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.681696380499523e-07</v>
+        <v>1.6989203585197e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1664,85 +1664,85 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.608402817866535e-07</v>
+        <v>1.591946705930024e-07</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.493286581402958e-07</v>
+        <v>1.379493345633971e-07</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.097021447918392e-07</v>
+        <v>1.316511079805008e-07</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.085983404528688e-07</v>
+        <v>1.24971359396434e-07</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.059140818972677e-07</v>
+        <v>1.121639238941802e-07</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9.771011340477914e-08</v>
+        <v>1.002623803145276e-07</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>9.664703701768427e-08</v>
+        <v>8.850376789605033e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7.512980287729398e-08</v>
+        <v>8.112541656118031e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7.053279425509815e-08</v>
+        <v>6.269400613764571e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1.329027444425599e-08</v>
+        <v>1.292334876238133e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1.087513721434198e-08</v>
+        <v>1.169643555158222e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6.75724658050076e-09</v>
+        <v>1.007245330045063e-08</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VTZP_SHAP.xlsx
+++ b/ozone/ozone_VTZP_SHAP.xlsx
@@ -447,28 +447,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$\langle qq \vert qq \rangle$</t>
+          <t>h$_{q}$</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.00194509764621996</v>
+        <v>0.002424942625231523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>h$_{q}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001806405169951488</v>
+        <v>0.001552938712451583</v>
       </c>
     </row>
     <row r="4">
@@ -481,85 +481,85 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001030939165310405</v>
+        <v>0.001293192441399431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$F_{q}$</t>
+          <t>$\langle qq \vert qq \rangle$</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0008744899204508957</v>
+        <v>0.0009548290539099646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>$F_{q}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0006352018862609988</v>
+        <v>0.0008860864767195746</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$F_{q}^{\text{SCF}}$</t>
+          <t>h$_{rs}^{3}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0006286188149934027</v>
+        <v>0.0003774870288447289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0004868368230681382</v>
+        <v>0.0003566923800701754</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0003313962474878542</v>
+        <v>0.0003314264000377793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0003044498699009141</v>
+        <v>0.0002945007770099127</v>
       </c>
     </row>
     <row r="11">
@@ -572,865 +572,865 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002683088222694</v>
+        <v>0.0002816739745429946</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$F_{s}^{\text{SCF}}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002593594698316075</v>
+        <v>0.0002613479469634115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.000252806681707469</v>
+        <v>0.0001816575507941006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>h$_{rs}^{3}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0002470983937014804</v>
+        <v>0.0001691088948679329</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.000155506172445445</v>
+        <v>0.0001646017831153095</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FA$_{qs}$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001549540278802658</v>
+        <v>0.0001607278127217514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001427543223523081</v>
+        <v>0.0001345657010055952</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FI$_{qs}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001406777453182349</v>
+        <v>0.0001272628107949879</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>FA$_{qs}$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001132686806636267</v>
+        <v>0.000125241474422257</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>FI$_{qs}$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.000103728263892844</v>
+        <v>0.0001192855457256509</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
+          <t>$\omega_{q}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.000100844566747294</v>
+        <v>0.0001149559126956831</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>h$_{p}^{2}$</t>
+          <t>h$_{r}^{3}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.902569680403246e-05</v>
+        <v>0.0001122359758484012</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.683742161502815e-05</v>
+        <v>0.000108437324100444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8.935739885445854e-05</v>
+        <v>0.0001048844474537108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>h$_{r}^{3}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.793148476700385e-05</v>
+        <v>9.40160417511785e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.731045049528486e-05</v>
+        <v>8.225273496359804e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>8.729929690544922e-05</v>
+        <v>7.784097009412374e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>h$_{r}^{1}$</t>
+          <t>h$_{pq}^{3}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.508264073544888e-05</v>
+        <v>7.470687568591825e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>h$_{pq}^{3}$</t>
+          <t>typ_3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>8.482727735757262e-05</v>
+        <v>7.119898427669287e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>8.304035830667969e-05</v>
+        <v>6.775015574933168e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>h$_{p}^{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.144388374488473e-05</v>
+        <v>6.440194727737776e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>typ_3</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.77602566001905e-05</v>
+        <v>6.09156734616714e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.601211829127773e-05</v>
+        <v>5.469718240032086e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>h$_{r}^{2}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.01981901654735e-05</v>
+        <v>5.242230984771212e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>typ_1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.638268573879573e-05</v>
+        <v>5.00203053950387e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$\eta_{s}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.311554710674413e-05</v>
+        <v>4.898025463091048e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>h$_{r}^{1}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.070445902978927e-05</v>
+        <v>4.731281769598637e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>h$_{pr}^{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.885330499007429e-05</v>
+        <v>4.700254659051117e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>h$_{p}^{0}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.784229247006348e-05</v>
+        <v>4.188450797050482e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>h$_{p}^{2}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.720844953883601e-05</v>
+        <v>4.028819242034477e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>h$_{rs}^{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.717815880197529e-05</v>
+        <v>4.023194799783042e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>h$_{r}^{2}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.700131861588328e-05</v>
+        <v>3.752051269507874e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>h$_{pr}^{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.504774087439861e-05</v>
+        <v>3.751785729776019e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>h$_{pr}^{2}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.370782852659465e-05</v>
+        <v>3.471636530544527e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>h$_{pq}^{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.232924699069303e-05</v>
+        <v>3.152250150291571e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>typ_0</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.209007779275085e-05</v>
+        <v>3.045844952803652e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.203533073389536e-05</v>
+        <v>2.984959203437672e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.164213345520241e-05</v>
+        <v>2.849329520879791e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
+          <t>h$_{pr}^{1}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.034945791054597e-05</v>
+        <v>2.82667244593758e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>typ_2</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.943404609335781e-05</v>
+        <v>2.663491828045997e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>h$_{pq}^{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.678073466255247e-05</v>
+        <v>2.604951392778558e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.366151817830605e-05</v>
+        <v>2.578703999107873e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.202977823572696e-05</v>
+        <v>2.576679753780765e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>h$_{pq}^{1}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.17615930497546e-05</v>
+        <v>2.576362253824831e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>h$_{pr}^{3}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.144556018481902e-05</v>
+        <v>2.551114472969322e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.053014813978082e-05</v>
+        <v>2.54620113282191e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>h$_{pr}^{3}$</t>
+          <t>h$_{r}^{0}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.047007399487397e-05</v>
+        <v>2.207768318460393e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.931317148690808e-05</v>
+        <v>2.181527176521973e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.862987545932772e-05</v>
+        <v>2.039953617542562e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>h$_{pq}^{2}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.777275067913309e-05</v>
+        <v>2.013304009880738e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.704935277646223e-05</v>
+        <v>1.9629177911764e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>h$_{r}^{0}$</t>
+          <t>typ_0</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.609666314417677e-05</v>
+        <v>1.930523568829612e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>h$_{p}^{1}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.49898674812587e-05</v>
+        <v>1.847324172639465e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>h$_{rs}^{0}$</t>
+          <t>h$_{pq}^{0}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.495013778519909e-05</v>
+        <v>1.736353709140098e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>h$_{pq}^{0}$</t>
+          <t>h$_{rs}^{0}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.453603244127391e-05</v>
+        <v>1.692599445140536e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>h$_{p}^{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.416397742143847e-05</v>
+        <v>1.558565786640674e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>typ_2</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.348391260600136e-05</v>
+        <v>1.474060677861446e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.308480641036284e-05</v>
+        <v>1.427117359990195e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.156695138761045e-05</v>
+        <v>1.383995714344376e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>h$_{pr}^{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.12419102293991e-05</v>
+        <v>1.29315198073078e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.119905882560219e-05</v>
+        <v>1.279861328724217e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>h$_{rs}^{2}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.1162357291741e-05</v>
+        <v>1.279126961531488e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>typ_1</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9.381280056516233e-06</v>
+        <v>1.11614435534941e-05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9.124969217982509e-06</v>
+        <v>1.104678870431874e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>h$_{pr}^{0}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9.038984198279314e-06</v>
+        <v>1.091440830429157e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8.733291539230997e-06</v>
+        <v>9.447395792284844e-06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7.739212165113958e-06</v>
+        <v>9.170204182607927e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1443,137 +1443,137 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.63096311561106e-06</v>
+        <v>9.105017768006684e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.139091976137434e-06</v>
+        <v>8.390946973839677e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.08190507842165e-06</v>
+        <v>6.688252368226641e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5.761066374722253e-06</v>
+        <v>6.082639412414409e-06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.56872119437079e-06</v>
+        <v>4.320190853972185e-06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(\eta_{p})_{2}$</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.472066202883751e-06</v>
+        <v>3.272546656140128e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.738925324421023e-06</v>
+        <v>3.109073305158999e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{2}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.902489172849546e-06</v>
+        <v>2.425110273882555e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5.551928990137636e-07</v>
+        <v>2.241900928969269e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4.477981570927126e-07</v>
+        <v>1.546199693803324e-06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4.375728308215206e-07</v>
+        <v>1.25486103334089e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1586,33 +1586,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3.692255639771814e-07</v>
+        <v>1.089903606108666e-06</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3.505646844630095e-07</v>
+        <v>6.04735272118935e-07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2.682307745673009e-07</v>
+        <v>5.123277872939081e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.502153056358304e-07</v>
+        <v>3.642819338667036e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1638,176 +1638,176 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2.121715547427413e-07</v>
+        <v>3.085135979961414e-07</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.6989203585197e-07</v>
+        <v>2.925158127865008e-07</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.591946705930024e-07</v>
+        <v>2.815100548635338e-07</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.379493345633971e-07</v>
+        <v>2.721562860040056e-07</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.316511079805008e-07</v>
+        <v>2.426615378090766e-07</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.24971359396434e-07</v>
+        <v>2.389509792883186e-07</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.121639238941802e-07</v>
+        <v>2.243932376986351e-07</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.002623803145276e-07</v>
+        <v>1.888596810836502e-07</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8.850376789605033e-08</v>
+        <v>1.81561930617072e-07</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8.112541656118031e-08</v>
+        <v>1.481326389713419e-07</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6.269400613764571e-08</v>
+        <v>1.37296347696957e-07</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>F$_{qs}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1.292334876238133e-08</v>
+        <v>1.208996706835084e-07</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>F$_{qs}$</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1.169643555158222e-08</v>
+        <v>5.178374930481531e-09</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$\omega_{q}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.007245330045063e-08</v>
+        <v>2.893116966043491e-09</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VTZP_SHAP.xlsx
+++ b/ozone/ozone_VTZP_SHAP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,51 +455,51 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.002424942625231523</v>
+        <v>0.003014780398379638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$F_{q}$</t>
+          <t>$\langle ss \vert ss \rangle$</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001552938712451583</v>
+        <v>0.001402354041766674</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$\langle ss \vert ss \rangle$</t>
+          <t>$\langle qq \vert qq \rangle$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001293192441399431</v>
+        <v>0.00082242076277838</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$\langle qq \vert qq \rangle$</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0009548290539099646</v>
+        <v>0.000383306643664837</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0008860864767195746</v>
+        <v>0.0003773280276621778</v>
       </c>
     </row>
     <row r="7">
@@ -516,211 +516,211 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>h$_{rs}^{3}$</t>
+          <t>(h$_{rs}$)$_{3}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0003774870288447289</v>
+        <v>0.0003286952812258875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0003566923800701754</v>
+        <v>0.0002912873361415984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0003314264000377793</v>
+        <v>0.0002577763998449835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002945007770099127</v>
+        <v>0.0002540502087579192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>h$_{p}^{3}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002816739745429946</v>
+        <v>0.0002431697507987722</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>h$_{qs}$</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002613479469634115</v>
+        <v>0.0002203386198261743</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001816575507941006</v>
+        <v>0.0002095416825163232</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>(h$_{p}$)$_{3}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001691088948679329</v>
+        <v>0.0002054315862976648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$F_{s}^{\text{SCF}}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001646017831153095</v>
+        <v>0.0001935500799616494</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$\eta_{s}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001607278127217514</v>
+        <v>0.0001485704347209281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001345657010055952</v>
+        <v>0.0001376852125710126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001272628107949879</v>
+        <v>0.000137273856336229</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FA$_{qs}$</t>
+          <t>$\omega_{q}$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000125241474422257</v>
+        <v>0.0001264911677510234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FI$_{qs}$</t>
+          <t>(h$_{r}$)$_{3}$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001192855457256509</v>
+        <v>0.0001131794881260554</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$\omega_{q}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001149559126956831</v>
+        <v>0.0001130891826266291</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>h$_{r}^{3}$</t>
+          <t>(h$_{r}$)$_{1}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0001122359758484012</v>
+        <v>9.092609189358801e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -728,12 +728,12 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.000108437324100444</v>
+        <v>7.923502867468902e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -741,766 +741,766 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0001048844474537108</v>
+        <v>7.849856502424525e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>type_3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.40160417511785e-05</v>
+        <v>6.332382366128924e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>(h$_{pq}$)$_{3}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.225273496359804e-05</v>
+        <v>6.229422531424987e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>h$_{qs}$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7.784097009412374e-05</v>
+        <v>6.188937332518258e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>h$_{pq}^{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.470687568591825e-05</v>
+        <v>6.064119789258407e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>typ_3</t>
+          <t>type_0</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7.119898427669287e-05</v>
+        <v>5.81142959577257e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.775015574933168e-05</v>
+        <v>5.677302013611078e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.440194727737776e-05</v>
+        <v>5.546368554742455e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6.09156734616714e-05</v>
+        <v>5.407097440129359e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.469718240032086e-05</v>
+        <v>4.832877854486027e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>h$_{r}^{2}$</t>
+          <t>type_2</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.242230984771212e-05</v>
+        <v>4.63776751811166e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>typ_1</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.00203053950387e-05</v>
+        <v>4.430305125644221e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>(h$_{rs}$)$_{2}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.898025463091048e-05</v>
+        <v>4.351296597911749e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>h$_{r}^{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.731281769598637e-05</v>
+        <v>4.148963673576646e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.700254659051117e-05</v>
+        <v>3.890983984858438e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>h$_{p}^{0}$</t>
+          <t>(h$_{pr}$)$_{2}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.188450797050482e-05</v>
+        <v>3.789906225436191e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>h$_{p}^{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.028819242034477e-05</v>
+        <v>3.76579489565839e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>(h$_{p}$)$_{2}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.023194799783042e-05</v>
+        <v>3.634887752271042e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.752051269507874e-05</v>
+        <v>3.609148909535752e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.751785729776019e-05</v>
+        <v>3.538520993210627e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>h$_{pr}^{2}$</t>
+          <t>(h$_{pq}$)$_{2}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.471636530544527e-05</v>
+        <v>3.461522469943708e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.152250150291571e-05</v>
+        <v>3.195172735559457e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.045844952803652e-05</v>
+        <v>3.130313721411322e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>(h$_{r}$)$_{2}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.984959203437672e-05</v>
+        <v>3.092636722056507e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>(h$_{p}$)$_{1}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.849329520879791e-05</v>
+        <v>3.043274911755724e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>h$_{pr}^{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.82667244593758e-05</v>
+        <v>3.012612395866211e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>typ_2</t>
+          <t>type_1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.663491828045997e-05</v>
+        <v>2.900498149893717e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.604951392778558e-05</v>
+        <v>2.873174103310873e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>(h$_{pq}$)$_{1}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.578703999107873e-05</v>
+        <v>2.735974874503543e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.576679753780765e-05</v>
+        <v>2.693695428614644e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>h$_{pq}^{1}$</t>
+          <t>(h$_{rs}$)$_{1}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.576362253824831e-05</v>
+        <v>2.660018404152719e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>h$_{pr}^{3}$</t>
+          <t>(h$_{p}$)$_{0}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.551114472969322e-05</v>
+        <v>2.636309672595876e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.54620113282191e-05</v>
+        <v>2.627553051819163e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>h$_{r}^{0}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.207768318460393e-05</v>
+        <v>2.408600166531397e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>(h$_{rs}$)$_{0}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.181527176521973e-05</v>
+        <v>2.279700504429114e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.039953617542562e-05</v>
+        <v>2.250430427146552e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>h$_{pq}^{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.013304009880738e-05</v>
+        <v>2.237866494586781e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>(h$_{r}$)$_{0}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.9629177911764e-05</v>
+        <v>2.179926122061041e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>typ_0</t>
+          <t>(h$_{pr}$)$_{0}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.930523568829612e-05</v>
+        <v>2.082044498990063e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>h$_{p}^{1}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.847324172639465e-05</v>
+        <v>2.062428605721198e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>h$_{pq}^{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.736353709140098e-05</v>
+        <v>2.045364289483243e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>h$_{rs}^{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.692599445140536e-05</v>
+        <v>2.040265033973878e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.558565786640674e-05</v>
+        <v>1.87867814372272e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.474060677861446e-05</v>
+        <v>1.799005617505246e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.427117359990195e-05</v>
+        <v>1.772775365877889e-05</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>(h$_{pq}$)$_{0}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.383995714344376e-05</v>
+        <v>1.701504097703235e-05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.29315198073078e-05</v>
+        <v>1.627377193074433e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>(h$_{pr}$)$_{1}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.279861328724217e-05</v>
+        <v>1.554449887350846e-05</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>h$_{rs}^{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.279126961531488e-05</v>
+        <v>1.482346234105408e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.11614435534941e-05</v>
+        <v>1.473497730149659e-05</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.104678870431874e-05</v>
+        <v>1.417129867839537e-05</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>h$_{pr}^{0}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.091440830429157e-05</v>
+        <v>1.298961662338933e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>9.447395792284844e-06</v>
+        <v>1.276699542819349e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9.170204182607927e-06</v>
+        <v>8.457505051443953e-06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>h$_{rs}^{1}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>9.105017768006684e-06</v>
+        <v>7.69401841090897e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8.390946973839677e-06</v>
+        <v>7.469141810934604e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6.688252368226641e-06</v>
+        <v>6.682044303826883e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6.082639412414409e-06</v>
+        <v>6.586494117822288e-06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.320190853972185e-06</v>
+        <v>5.704133493754906e-06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1508,306 +1508,267 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3.272546656140128e-06</v>
+        <v>5.005483742455489e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.109073305158999e-06</v>
+        <v>3.516658677759995e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.425110273882555e-06</v>
+        <v>2.542959834740869e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2.241900928969269e-06</v>
+        <v>1.983989184116141e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.546199693803324e-06</v>
+        <v>1.852283221776464e-06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.25486103334089e-06</v>
+        <v>1.567576123323096e-06</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.089903606108666e-06</v>
+        <v>1.464956470240231e-06</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6.04735272118935e-07</v>
+        <v>1.049979491579088e-06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5.123277872939081e-07</v>
+        <v>3.48347419117156e-09</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3.642819338667036e-07</v>
+        <v>2.836982953050038e-09</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3.085135979961414e-07</v>
+        <v>1.445495406271398e-09</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2.925158127865008e-07</v>
+        <v>1.260694167268496e-09</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2.815100548635338e-07</v>
+        <v>7.52823671623008e-10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2.721562860040056e-07</v>
+        <v>7.46478408752709e-10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2.426615378090766e-07</v>
+        <v>7.289108950573099e-10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2.389509792883186e-07</v>
+        <v>5.556295352578441e-10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2.243932376986351e-07</v>
+        <v>5.411192460754972e-10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.888596810836502e-07</v>
+        <v>5.215721193317726e-10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1.81561930617072e-07</v>
+        <v>3.036719385119349e-10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.481326389713419e-07</v>
+        <v>2.380755254404329e-10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.37296347696957e-07</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>$(\omega_{r})_{3}$</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>1.208996706835084e-07</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>F$_{qs}$</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>5.178374930481531e-09</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>$\mathbf{b}$</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>2.893116966043491e-09</v>
+        <v>7.958944058049979e-11</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VTZP_SHAP.xlsx
+++ b/ozone/ozone_VTZP_SHAP.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003014780398379638</v>
+        <v>0.003011558224893633</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001402354041766674</v>
+        <v>0.001398754878081991</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.00082242076277838</v>
+        <v>0.000820595559525982</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.000383306643664837</v>
+        <v>0.000383122750296422</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0003773280276621778</v>
+        <v>0.0003771042277510145</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0003286952812258875</v>
+        <v>0.0003319213207371551</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0002912873361415984</v>
+        <v>0.000288331681822418</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0002577763998449835</v>
+        <v>0.0002596796759118628</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002540502087579192</v>
+        <v>0.0002525646424993941</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002431697507987722</v>
+        <v>0.000247711845948128</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002203386198261743</v>
+        <v>0.0002170963448423999</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0002095416825163232</v>
+        <v>0.0002128087062505255</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0002054315862976648</v>
+        <v>0.0002049321912411723</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001935500799616494</v>
+        <v>0.0001949469292711607</v>
       </c>
     </row>
     <row r="16">
@@ -637,33 +637,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001485704347209281</v>
+        <v>0.0001489704927518552</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$F_{q}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001376852125710126</v>
+        <v>0.0001369315222491405</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.000137273856336229</v>
+        <v>0.0001367220880664417</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001264911677510234</v>
+        <v>0.000126689855998245</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001131794881260554</v>
+        <v>0.0001139853583913129</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001130891826266291</v>
+        <v>0.0001124974372270984</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.092609189358801e-05</v>
+        <v>9.079747170250294e-05</v>
       </c>
     </row>
     <row r="23">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.923502867468902e-05</v>
+        <v>7.868989601447069e-05</v>
       </c>
     </row>
     <row r="24">
@@ -741,33 +741,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.849856502424525e-05</v>
+        <v>7.817307012744496e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>type_3</t>
+          <t>(h$_{pq}$)$_{3}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6.332382366128924e-05</v>
+        <v>6.391886886259363e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{3}$</t>
+          <t>type_3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.229422531424987e-05</v>
+        <v>6.342866249886945e-05</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.188937332518258e-05</v>
+        <v>6.213573282900078e-05</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6.064119789258407e-05</v>
+        <v>6.104371887992106e-05</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.81142959577257e-05</v>
+        <v>5.905124198622398e-05</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.677302013611078e-05</v>
+        <v>5.711014535110327e-05</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.546368554742455e-05</v>
+        <v>5.662342197211688e-05</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.407097440129359e-05</v>
+        <v>5.430566758509812e-05</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.832877854486027e-05</v>
+        <v>4.772849392895252e-05</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.63776751811166e-05</v>
+        <v>4.671264201576785e-05</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.430305125644221e-05</v>
+        <v>4.349166215944893e-05</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.351296597911749e-05</v>
+        <v>4.309329212750435e-05</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.148963673576646e-05</v>
+        <v>4.110502705896857e-05</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.890983984858438e-05</v>
+        <v>3.869533784731011e-05</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.789906225436191e-05</v>
+        <v>3.788991975907304e-05</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.76579489565839e-05</v>
+        <v>3.772976058511072e-05</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.634887752271042e-05</v>
+        <v>3.705779891132885e-05</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.609148909535752e-05</v>
+        <v>3.687477429133638e-05</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.538520993210627e-05</v>
+        <v>3.576548924306131e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.461522469943708e-05</v>
+        <v>3.440180614521922e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.195172735559457e-05</v>
+        <v>3.260563657333214e-05</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.130313721411322e-05</v>
+        <v>3.200731904606498e-05</v>
       </c>
     </row>
     <row r="47">
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.092636722056507e-05</v>
+        <v>3.107914340458499e-05</v>
       </c>
     </row>
     <row r="48">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.043274911755724e-05</v>
+        <v>3.007818500800362e-05</v>
       </c>
     </row>
     <row r="49">
@@ -1066,33 +1066,33 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.012612395866211e-05</v>
+        <v>2.996966448783539e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>type_1</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.900498149893717e-05</v>
+        <v>2.879676746411079e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>type_1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.873174103310873e-05</v>
+        <v>2.855371418312209e-05</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.735974874503543e-05</v>
+        <v>2.735543996812856e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.693695428614644e-05</v>
+        <v>2.667591872580024e-05</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.660018404152719e-05</v>
+        <v>2.650735064875721e-05</v>
       </c>
     </row>
     <row r="55">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.636309672595876e-05</v>
+        <v>2.649890117148161e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.627553051819163e-05</v>
+        <v>2.634583477723057e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.408600166531397e-05</v>
+        <v>2.561823773680406e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1183,33 +1183,33 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.279700504429114e-05</v>
+        <v>2.303693994883687e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.250430427146552e-05</v>
+        <v>2.25048187751384e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.237866494586781e-05</v>
+        <v>2.246514873551041e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.179926122061041e-05</v>
+        <v>2.187560378179541e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.082044498990063e-05</v>
+        <v>2.09321099499132e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1248,33 +1248,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.062428605721198e-05</v>
+        <v>2.07624467978136e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.045364289483243e-05</v>
+        <v>2.048952420813167e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2.040265033973878e-05</v>
+        <v>2.037723893265321e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1287,33 +1287,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.87867814372272e-05</v>
+        <v>1.905354691654031e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.799005617505246e-05</v>
+        <v>1.780956549436204e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.772775365877889e-05</v>
+        <v>1.778838237289119e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.701504097703235e-05</v>
+        <v>1.713964518895558e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.627377193074433e-05</v>
+        <v>1.597476274801735e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.554449887350846e-05</v>
+        <v>1.570577278993051e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.482346234105408e-05</v>
+        <v>1.49319824293483e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.473497730149659e-05</v>
+        <v>1.471736703358423e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.417129867839537e-05</v>
+        <v>1.424630625450237e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.298961662338933e-05</v>
+        <v>1.299709986768325e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.276699542819349e-05</v>
+        <v>1.282684730540168e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8.457505051443953e-06</v>
+        <v>8.570075516764712e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.69401841090897e-06</v>
+        <v>7.760604535262311e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.469141810934604e-06</v>
+        <v>7.56270922989295e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6.682044303826883e-06</v>
+        <v>6.73564669488312e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6.586494117822288e-06</v>
+        <v>6.636262760234857e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5.704133493754906e-06</v>
+        <v>5.808940024011132e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5.005483742455489e-06</v>
+        <v>4.972539675705066e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.516658677759995e-06</v>
+        <v>3.506727379004268e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.542959834740869e-06</v>
+        <v>2.534454001085589e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.983989184116141e-06</v>
+        <v>1.905792554111665e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.852283221776464e-06</v>
+        <v>1.837686862147749e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.567576123323096e-06</v>
+        <v>1.550880179602215e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.464956470240231e-06</v>
+        <v>1.455371227751058e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1599,98 +1599,98 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.049979491579088e-06</v>
+        <v>1.031986825824511e-06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.48347419117156e-09</v>
+        <v>3.702886799327202e-09</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.836982953050038e-09</v>
+        <v>2.349563757338587e-09</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.445495406271398e-09</v>
+        <v>8.998001332837105e-10</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.260694167268496e-09</v>
+        <v>7.551042994662785e-10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.52823671623008e-10</v>
+        <v>5.907553279447355e-10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.46478408752709e-10</v>
+        <v>5.11256084297434e-10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.289108950573099e-10</v>
+        <v>2.297544444583153e-10</v>
       </c>
     </row>
     <row r="98">
@@ -1703,72 +1703,72 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5.556295352578441e-10</v>
+        <v>1.162309287639823e-10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5.411192460754972e-10</v>
+        <v>1.096116241743758e-10</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5.215721193317726e-10</v>
+        <v>5.811546438200716e-11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3.036719385119349e-10</v>
+        <v>3.066411914505989e-11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2.380755254404329e-10</v>
+        <v>2.083202989675856e-11</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7.958944058049979e-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VTZP_SHAP.xlsx
+++ b/ozone/ozone_VTZP_SHAP.xlsx
@@ -447,15 +447,15 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>h$_{q}$</t>
+          <t>$F_{q}$</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003011558224893633</v>
+        <v>0.003453107025934811</v>
       </c>
     </row>
     <row r="3">
@@ -468,111 +468,111 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.001398754878081991</v>
+        <v>0.002177417755423895</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$\langle qq \vert qq \rangle$</t>
+          <t>h$_{q}$</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.000820595559525982</v>
+        <v>0.002050378218767147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
+          <t>$F_{q}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.000383122750296422</v>
+        <v>0.00126171762289135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$F_{q}^{\text{SCF}}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0003771042277510145</v>
+        <v>0.0005166629746940677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{3}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0003319213207371551</v>
+        <v>0.0005089541057419127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.000288331681822418</v>
+        <v>0.000499484084367496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$F_{s}^{\text{SCF}}$</t>
+          <t>(h$_{rs}$)$_{3}$</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0002596796759118628</v>
+        <v>0.0004118607158046018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>$(\eta_{r})_{0}$</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0002525646424993941</v>
+        <v>0.0004015569015125748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>(h$_{p}$)$_{3}$</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.000247711845948128</v>
+        <v>0.0002980918373755349</v>
       </c>
     </row>
     <row r="12">
@@ -585,124 +585,124 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002170963448423999</v>
+        <v>0.0002675099638510111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>$\langle qq \vert qq \rangle$</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0002128087062505255</v>
+        <v>0.0002377681256512349</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{3}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0002049321912411723</v>
+        <v>0.0002174099935974576</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001949469292711607</v>
+        <v>0.00021121198939757</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>$F_{s}^{\text{SCF}}$</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001489704927518552</v>
+        <v>0.0002019669147575084</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$\omega_{q}$</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001369315222491405</v>
+        <v>0.000162910916769889</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$F_{q}$</t>
+          <t>(h$_{r}$)$_{3}$</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001367220880664417</v>
+        <v>0.0001517827296280363</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$\omega_{q}$</t>
+          <t>$(F_{p})_{3}$</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000126689855998245</v>
+        <v>0.000133877011107493</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001139853583913129</v>
+        <v>0.0001001245003851369</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$(F_{p})_{3}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001124974372270984</v>
+        <v>9.802200863014931e-05</v>
       </c>
     </row>
     <row r="22">
@@ -715,735 +715,735 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.079747170250294e-05</v>
+        <v>9.05153926458663e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.868989601447069e-05</v>
+        <v>8.98178589223699e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
+          <t>(h$_{p}$)$_{0}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7.817307012744496e-05</v>
+        <v>8.523475282685574e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6.391886886259363e-05</v>
+        <v>8.183424759779256e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>type_3</t>
+          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.342866249886945e-05</v>
+        <v>8.131914142352943e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$\eta_{s}$</t>
+          <t>(h$_{p}$)$_{2}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.213573282900078e-05</v>
+        <v>7.69672888134423e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$\eta_{s}$</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6.104371887992106e-05</v>
+        <v>7.672400360278297e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>type_0</t>
+          <t>(h$_{r}$)$_{2}$</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5.905124198622398e-05</v>
+        <v>7.34835652134429e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{3}$</t>
+          <t>type_0</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.711014535110327e-05</v>
+        <v>6.716778660719659e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.662342197211688e-05</v>
+        <v>5.446518402623603e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>type_3</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.430566758509812e-05</v>
+        <v>5.241966736097078e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.772849392895252e-05</v>
+        <v>4.39350424461577e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>type_2</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.671264201576785e-05</v>
+        <v>4.268722146304311e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.349166215944893e-05</v>
+        <v>4.213989431366391e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{2}$</t>
+          <t>type_2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.309329212750435e-05</v>
+        <v>4.171316046711367e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{3}$</t>
+          <t>(h$_{pq}$)$_{3}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.110502705896857e-05</v>
+        <v>3.84539424402379e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.869533784731011e-05</v>
+        <v>3.377802215800617e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{2}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.788991975907304e-05</v>
+        <v>3.278976108288645e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.772976058511072e-05</v>
+        <v>3.036542311308558e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.705779891132885e-05</v>
+        <v>2.976416024801527e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{2}$</t>
+          <t>(h$_{p}$)$_{1}$</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.687477429133638e-05</v>
+        <v>2.761552353017984e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>(h$_{pq}$)$_{1}$</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.576548924306131e-05</v>
+        <v>2.559830555613883e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{2}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.440180614521922e-05</v>
+        <v>1.970105959351434e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>type_1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.260563657333214e-05</v>
+        <v>1.931563380610736e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.200731904606498e-05</v>
+        <v>1.896378456025563e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.107914340458499e-05</v>
+        <v>1.895083126916609e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{1}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.007818500800362e-05</v>
+        <v>1.871473769317106e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.996966448783539e-05</v>
+        <v>1.840247442772128e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>(h$_{r}$)$_{0}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.879676746411079e-05</v>
+        <v>1.836515145250812e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>type_1</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.855371418312209e-05</v>
+        <v>1.788584959944434e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{1}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2.735543996812856e-05</v>
+        <v>1.749331029894957e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.667591872580024e-05</v>
+        <v>1.697212001997529e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{1}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.650735064875721e-05</v>
+        <v>1.664296007913971e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{0}$</t>
+          <t>(h$_{pq}$)$_{0}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.649890117148161e-05</v>
+        <v>1.63757288673568e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>(h$_{pr}$)$_{2}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.634583477723057e-05</v>
+        <v>1.550035440428736e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.561823773680406e-05</v>
+        <v>1.50495052390667e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2.303693994883687e-05</v>
+        <v>1.492459101673799e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
+          <t>(h$_{rs}$)$_{0}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.25048187751384e-05</v>
+        <v>1.485937468915881e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.246514873551041e-05</v>
+        <v>1.389735342336346e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{0}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2.187560378179541e-05</v>
+        <v>1.389226510718787e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{0}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.09321099499132e-05</v>
+        <v>1.333630226474516e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$(F_{p})_{1}$</t>
+          <t>$(\eta_{r})_{3}$</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2.07624467978136e-05</v>
+        <v>1.27789220554997e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.048952420813167e-05</v>
+        <v>1.226733539811192e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2.037723893265321e-05</v>
+        <v>1.206512318452737e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.905354691654031e-05</v>
+        <v>1.104189260302972e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.780956549436204e-05</v>
+        <v>1.033852654365031e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.778838237289119e-05</v>
+        <v>9.88660193830943e-06</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{0}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.713964518895558e-05</v>
+        <v>8.839060838182312e-06</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.597476274801735e-05</v>
+        <v>8.49296958152086e-06</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{1}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1.570577278993051e-05</v>
+        <v>7.288630645792166e-06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.49319824293483e-05</v>
+        <v>6.909876943390218e-06</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>(h$_{pq}$)$_{2}$</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1.471736703358423e-05</v>
+        <v>5.39366371860211e-06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>(h$_{rs}$)$_{2}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.424630625450237e-05</v>
+        <v>4.766196343143606e-06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.299709986768325e-05</v>
+        <v>4.516146131824811e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$(F_{r})_{2}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1.282684730540168e-05</v>
+        <v>4.16702106144482e-06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>(h$_{pr}$)$_{1}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8.570075516764712e-06</v>
+        <v>4.164556315720482e-06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{0}$</t>
+          <t>$(F_{p})_{0}$</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.760604535262311e-06</v>
+        <v>3.622006608364239e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1456,319 +1456,319 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.56270922989295e-06</v>
+        <v>3.605970344561871e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{3}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6.73564669488312e-06</v>
+        <v>3.409100016257333e-06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>(h$_{rs}$)$_{1}$</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6.636262760234857e-06</v>
+        <v>3.119292746889044e-06</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>$(F_{p})_{1}$</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5.808940024011132e-06</v>
+        <v>2.373934017036841e-06</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{2}$</t>
+          <t>$(F_{r})_{1}$</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4.972539675705066e-06</v>
+        <v>2.308956783998332e-06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{0}$</t>
+          <t>$(\eta_{p})_{2}$</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.506727379004268e-06</v>
+        <v>2.220526248888775e-06</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.534454001085589e-06</v>
+        <v>2.148877151108084e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(F_{p})_{0}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.905792554111665e-06</v>
+        <v>1.623342328303808e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(F_{r})_{1}$</t>
+          <t>(h$_{pr}$)$_{0}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.837686862147749e-06</v>
+        <v>1.565268030664994e-06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(F_{r})_{0}$</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.550880179602215e-06</v>
+        <v>1.326662337559643e-06</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$(F_{r})_{0}$</t>
+          <t>$(F_{r})_{2}$</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.455371227751058e-06</v>
+        <v>1.278850255076362e-06</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.031986825824511e-06</v>
+        <v>4.985654598278973e-07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.702886799327202e-09</v>
+        <v>3.898893577091164e-07</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.349563757338587e-09</v>
+        <v>2.251837807419062e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>8.998001332837105e-10</v>
+        <v>2.022433807714171e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7.551042994662785e-10</v>
+        <v>1.804601876519836e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5.907553279447355e-10</v>
+        <v>1.609875494052956e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5.11256084297434e-10</v>
+        <v>1.547071469140543e-08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2.297544444583153e-10</v>
+        <v>1.539609640022962e-08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.162309287639823e-10</v>
+        <v>1.332670583924392e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.096116241743758e-10</v>
+        <v>1.049142545153664e-08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5.811546438200716e-11</v>
+        <v>8.136578455219716e-09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3.066411914505989e-11</v>
+        <v>7.911318003512696e-09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2.083202989675856e-11</v>
+        <v>4.473635298223675e-09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>3.165997773812709e-09</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VTZP_SHAP.xlsx
+++ b/ozone/ozone_VTZP_SHAP.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003453107025934811</v>
+        <v>0.003479447749246525</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.002177417755423895</v>
+        <v>0.002154512089567316</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.002050378218767147</v>
+        <v>0.002040717709954266</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.00126171762289135</v>
+        <v>0.001278625327304519</v>
       </c>
     </row>
     <row r="6">
@@ -507,33 +507,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0005166629746940677</v>
+        <v>0.0005359240710797649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0005089541057419127</v>
+        <v>0.0005182205639778868</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.000499484084367496</v>
+        <v>0.0005029292985862726</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0004118607158046018</v>
+        <v>0.0004340476377971351</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0004015569015125748</v>
+        <v>0.0003895765462187053</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0002980918373755349</v>
+        <v>0.000301558097134539</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002675099638510111</v>
+        <v>0.0002762925251721485</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0002377681256512349</v>
+        <v>0.0002370291660324219</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0002174099935974576</v>
+        <v>0.0002191269735528172</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.00021121198939757</v>
+        <v>0.0002143573629019414</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0002019669147575084</v>
+        <v>0.0002018129117831485</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.000162910916769889</v>
+        <v>0.000164169781317744</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001517827296280363</v>
+        <v>0.0001512775611467695</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000133877011107493</v>
+        <v>0.0001337227693244812</v>
       </c>
     </row>
     <row r="20">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001001245003851369</v>
+        <v>0.0001015182539362315</v>
       </c>
     </row>
     <row r="21">
@@ -702,33 +702,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.802200863014931e-05</v>
+        <v>9.644563216813739e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{1}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.05153926458663e-05</v>
+        <v>8.831010142359924e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>(h$_{r}$)$_{1}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8.98178589223699e-05</v>
+        <v>8.761776201477848e-05</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8.523475282685574e-05</v>
+        <v>8.679513307223151e-05</v>
       </c>
     </row>
     <row r="25">
@@ -754,33 +754,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.183424759779256e-05</v>
+        <v>8.477914550563128e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
+          <t>(h$_{p}$)$_{2}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.131914142352943e-05</v>
+        <v>7.926377430137018e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{2}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7.69672888134423e-05</v>
+        <v>7.791937510008997e-05</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.672400360278297e-05</v>
+        <v>7.628852358787015e-05</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7.34835652134429e-05</v>
+        <v>6.825973617013058e-05</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.716778660719659e-05</v>
+        <v>6.611638753336276e-05</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.446518402623603e-05</v>
+        <v>5.53357238778258e-05</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.241966736097078e-05</v>
+        <v>5.436311367671874e-05</v>
       </c>
     </row>
     <row r="33">
@@ -858,33 +858,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.39350424461577e-05</v>
+        <v>4.354413301862474e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{3}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.268722146304311e-05</v>
+        <v>4.2161386325305e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.213989431366391e-05</v>
+        <v>4.142520967250709e-05</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.171316046711367e-05</v>
+        <v>4.119946062022077e-05</v>
       </c>
     </row>
     <row r="37">
@@ -910,59 +910,59 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.84539424402379e-05</v>
+        <v>3.917547453649012e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.377802215800617e-05</v>
+        <v>3.421069388989919e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.278976108288645e-05</v>
+        <v>3.402097918033402e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.036542311308558e-05</v>
+        <v>2.934981600409685e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.976416024801527e-05</v>
+        <v>2.93429704716471e-05</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.761552353017984e-05</v>
+        <v>2.85713211065215e-05</v>
       </c>
     </row>
     <row r="43">
@@ -988,150 +988,150 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.559830555613883e-05</v>
+        <v>2.502731015268953e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.970105959351434e-05</v>
+        <v>2.027846346813004e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>type_1</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.931563380610736e-05</v>
+        <v>1.963315831030666e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.896378456025563e-05</v>
+        <v>1.914378333657554e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.895083126916609e-05</v>
+        <v>1.914224593489011e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>type_1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.871473769317106e-05</v>
+        <v>1.913003961971187e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.840247442772128e-05</v>
+        <v>1.862752082248173e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{0}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.836515145250812e-05</v>
+        <v>1.799062790961543e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>(h$_{r}$)$_{0}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.788584959944434e-05</v>
+        <v>1.780669008577973e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.749331029894957e-05</v>
+        <v>1.70832623056397e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.697212001997529e-05</v>
+        <v>1.706665739759916e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.664296007913971e-05</v>
+        <v>1.667159923557488e-05</v>
       </c>
     </row>
     <row r="55">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.63757288673568e-05</v>
+        <v>1.629533991833211e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.550035440428736e-05</v>
+        <v>1.49762265710349e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.50495052390667e-05</v>
+        <v>1.493273690164006e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.492459101673799e-05</v>
+        <v>1.492420735417537e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.485937468915881e-05</v>
+        <v>1.405866031218614e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.389735342336346e-05</v>
+        <v>1.371174635210562e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.389226510718787e-05</v>
+        <v>1.356428843797076e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.333630226474516e-05</v>
+        <v>1.319697009330855e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1248,33 +1248,33 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.27789220554997e-05</v>
+        <v>1.314748808817928e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.226733539811192e-05</v>
+        <v>1.225865309924749e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{2}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.206512318452737e-05</v>
+        <v>1.214658604354236e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.104189260302972e-05</v>
+        <v>1.092925053108435e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.033852654365031e-05</v>
+        <v>1.065912136640484e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9.88660193830943e-06</v>
+        <v>9.679051838807981e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8.839060838182312e-06</v>
+        <v>8.818961957632138e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1339,33 +1339,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8.49296958152086e-06</v>
+        <v>8.719797697497137e-06</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{3}$</t>
+          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.288630645792166e-06</v>
+        <v>7.269503020847539e-06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$(\langle rr \vert rr \rangle)_{0}$</t>
+          <t>$(\eta_{p})_{3}$</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6.909876943390218e-06</v>
+        <v>6.791120553205726e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5.39366371860211e-06</v>
+        <v>5.628855151866367e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.766196343143606e-06</v>
+        <v>4.727155305898333e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1404,33 +1404,33 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4.516146131824811e-06</v>
+        <v>4.46782959380042e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>(h$_{pr}$)$_{1}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.16702106144482e-06</v>
+        <v>4.21233751121093e-06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{1}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.164556315720482e-06</v>
+        <v>4.163665712498695e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3.622006608364239e-06</v>
+        <v>3.727272221897991e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3.605970344561871e-06</v>
+        <v>3.629409005226394e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3.409100016257333e-06</v>
+        <v>3.503081367997355e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3.119292746889044e-06</v>
+        <v>3.144067090723238e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2.373934017036841e-06</v>
+        <v>2.373410333794346e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.308956783998332e-06</v>
+        <v>2.352487812179356e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.220526248888775e-06</v>
+        <v>2.243156933495444e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1534,33 +1534,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2.148877151108084e-06</v>
+        <v>1.983055853566243e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>(h$_{pr}$)$_{0}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.623342328303808e-06</v>
+        <v>1.74270966138856e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{0}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.565268030664994e-06</v>
+        <v>1.581432147858662e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.326662337559643e-06</v>
+        <v>1.372847115370753e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1586,33 +1586,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.278850255076362e-06</v>
+        <v>1.266636642403686e-06</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4.985654598278973e-07</v>
+        <v>5.362989443771831e-07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.898893577091164e-07</v>
+        <v>5.187626162796567e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1625,59 +1625,59 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.251837807419062e-08</v>
+        <v>1.908859395273056e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2.022433807714171e-08</v>
+        <v>1.81480669921059e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.804601876519836e-08</v>
+        <v>1.754263001467745e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.609875494052956e-08</v>
+        <v>1.720690024534217e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.547071469140543e-08</v>
+        <v>1.408851893243206e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1690,85 +1690,85 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.539609640022962e-08</v>
+        <v>1.376345830374392e-08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.332670583924392e-08</v>
+        <v>1.137618798555814e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.049142545153664e-08</v>
+        <v>1.059472692718713e-08</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8.136578455219716e-09</v>
+        <v>9.470231623012387e-09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7.911318003512696e-09</v>
+        <v>9.444187752210957e-09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4.473635298223675e-09</v>
+        <v>6.466040859323443e-09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3.165997773812709e-09</v>
+        <v>2.475878837094508e-09</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VTZP_SHAP.xlsx
+++ b/ozone/ozone_VTZP_SHAP.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003479447749246525</v>
+        <v>0.003451937919490256</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.002154512089567316</v>
+        <v>0.002174424256882952</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.002040717709954266</v>
+        <v>0.002063949932462754</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.001278625327304519</v>
+        <v>0.001278763926158885</v>
       </c>
     </row>
     <row r="6">
@@ -507,33 +507,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0005359240710797649</v>
+        <v>0.0005265073138351496</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0005182205639778868</v>
+        <v>0.0005052532361994914</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0005029292985862726</v>
+        <v>0.0005029599529687292</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0004340476377971351</v>
+        <v>0.000423126794535495</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0003895765462187053</v>
+        <v>0.0003997944618417414</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.000301558097134539</v>
+        <v>0.0003097026208987869</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002762925251721485</v>
+        <v>0.0002668173377425682</v>
       </c>
     </row>
     <row r="13">
@@ -598,33 +598,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0002370291660324219</v>
+        <v>0.0002367816917222445</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$F_{s}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0002191269735528172</v>
+        <v>0.0002216883783231014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{3}$</t>
+          <t>$F_{s}$</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0002143573629019414</v>
+        <v>0.0002184855760046509</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0002018129117831485</v>
+        <v>0.0002041136020256109</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.000164169781317744</v>
+        <v>0.0001625398327072145</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001512775611467695</v>
+        <v>0.0001416810574892402</v>
       </c>
     </row>
     <row r="19">
@@ -676,72 +676,72 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0001337227693244812</v>
+        <v>0.000132359584053288</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001015182539362315</v>
+        <v>0.0001024871207545312</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.644563216813739e-05</v>
+        <v>0.0001008854184642631</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>(h$_{p}$)$_{0}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8.831010142359924e-05</v>
+        <v>9.085692717647688e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{1}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8.761776201477848e-05</v>
+        <v>8.958136837734933e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{0}$</t>
+          <t>(h$_{r}$)$_{1}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8.679513307223151e-05</v>
+        <v>8.615430263815464e-05</v>
       </c>
     </row>
     <row r="25">
@@ -754,33 +754,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.477914550563128e-05</v>
+        <v>8.261384398590614e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{2}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.926377430137018e-05</v>
+        <v>8.173308377374262e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{2}$</t>
+          <t>(h$_{p}$)$_{2}$</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7.791937510008997e-05</v>
+        <v>7.676615832362616e-05</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.628852358787015e-05</v>
+        <v>7.657206567481889e-05</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.825973617013058e-05</v>
+        <v>7.198766389611014e-05</v>
       </c>
     </row>
     <row r="30">
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.611638753336276e-05</v>
+        <v>6.758690755563884e-05</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.53357238778258e-05</v>
+        <v>5.442784661287518e-05</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.436311367671874e-05</v>
+        <v>5.297811058123772e-05</v>
       </c>
     </row>
     <row r="33">
@@ -858,33 +858,33 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.354413301862474e-05</v>
+        <v>4.527378880840322e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>(h$_{pq}$)$_{3}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.2161386325305e-05</v>
+        <v>4.333149484771969e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{3}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.142520967250709e-05</v>
+        <v>4.243899784766316e-05</v>
       </c>
     </row>
     <row r="36">
@@ -897,20 +897,20 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.119946062022077e-05</v>
+        <v>4.169304120285888e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{3}$</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.917547453649012e-05</v>
+        <v>4.154300782482745e-05</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.421069388989919e-05</v>
+        <v>3.415737606811432e-05</v>
       </c>
     </row>
     <row r="39">
@@ -936,33 +936,33 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.402097918033402e-05</v>
+        <v>3.365592709574874e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
+          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.934981600409685e-05</v>
+        <v>3.06058726696013e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$(F_{p}^{\text{SCF}})_{1}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.93429704716471e-05</v>
+        <v>2.97136497841402e-05</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.85713211065215e-05</v>
+        <v>2.764108534118914e-05</v>
       </c>
     </row>
     <row r="43">
@@ -988,176 +988,176 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.502731015268953e-05</v>
+        <v>2.599747166957288e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.027846346813004e-05</v>
+        <v>1.927092727293902e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{0}$</t>
+          <t>type_1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.963315831030666e-05</v>
+        <v>1.899634361467679e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.914378333657554e-05</v>
+        <v>1.890231684228599e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.914224593489011e-05</v>
+        <v>1.882879100141476e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>type_1</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.913003961971187e-05</v>
+        <v>1.875840144161789e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.862752082248173e-05</v>
+        <v>1.827180048370134e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>(h$_{r}$)$_{0}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.799062790961543e-05</v>
+        <v>1.82408418420414e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{0}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.780669008577973e-05</v>
+        <v>1.777120928459473e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.70832623056397e-05</v>
+        <v>1.771945217078104e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{0}$</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.706665739759916e-05</v>
+        <v>1.688504416246849e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$(F_{r})_{3}$</t>
+          <t>(h$_{pq}$)$_{0}$</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.667159923557488e-05</v>
+        <v>1.637921612600122e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{0}$</t>
+          <t>$(F_{r})_{3}$</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.629533991833211e-05</v>
+        <v>1.543440494995655e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.49762265710349e-05</v>
+        <v>1.486528247531807e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1170,33 +1170,33 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.493273690164006e-05</v>
+        <v>1.476946652795001e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>(h$_{rs}$)$_{0}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.492420735417537e-05</v>
+        <v>1.46860767990808e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{0}$</t>
+          <t>(h$_{pr}$)$_{2}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.405866031218614e-05</v>
+        <v>1.430661841067594e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.371174635210562e-05</v>
+        <v>1.389855959298695e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.356428843797076e-05</v>
+        <v>1.387583807824674e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1235,7 +1235,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.319697009330855e-05</v>
+        <v>1.363481643619575e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.314748808817928e-05</v>
+        <v>1.289061536843044e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.225865309924749e-05</v>
+        <v>1.238307962696959e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.214658604354236e-05</v>
+        <v>1.216328619537913e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.092925053108435e-05</v>
+        <v>1.089681647703911e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.065912136640484e-05</v>
+        <v>1.044997807021348e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9.679051838807981e-06</v>
+        <v>9.546882602231099e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8.818961957632138e-06</v>
+        <v>9.092133689532084e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8.719797697497137e-06</v>
+        <v>8.724301742754743e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.269503020847539e-06</v>
+        <v>7.102920859533855e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6.791120553205726e-06</v>
+        <v>6.969569692280081e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1378,59 +1378,59 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5.628855151866367e-06</v>
+        <v>5.242882679187686e-06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{2}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.727155305898333e-06</v>
+        <v>4.738607483292845e-06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>(h$_{rs}$)$_{2}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4.46782959380042e-06</v>
+        <v>4.66194168901706e-06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{1}$</t>
+          <t>$(\omega_{p})_{3}$</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.21233751121093e-06</v>
+        <v>4.032357452569731e-06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{3}$</t>
+          <t>(h$_{pr}$)$_{1}$</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.163665712498695e-06</v>
+        <v>3.966300150926133e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3.727272221897991e-06</v>
+        <v>3.641995801931504e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3.629409005226394e-06</v>
+        <v>3.628809335402092e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3.503081367997355e-06</v>
+        <v>3.441908802092485e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3.144067090723238e-06</v>
+        <v>3.068620634200842e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2.373410333794346e-06</v>
+        <v>2.348573839717578e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.352487812179356e-06</v>
+        <v>2.269776099189785e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.243156933495444e-06</v>
+        <v>2.177048988093499e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1534,7 +1534,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.983055853566243e-06</v>
+        <v>1.985663425270344e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.74270966138856e-06</v>
+        <v>1.666568415716128e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.581432147858662e-06</v>
+        <v>1.533878974283268e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.372847115370753e-06</v>
+        <v>1.323603591546073e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1586,33 +1586,33 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.266636642403686e-06</v>
+        <v>1.253227205356783e-06</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{1}$</t>
+          <t>$(\eta_{r})_{1}$</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5.362989443771831e-07</v>
+        <v>5.512647892298724e-07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{1}$</t>
+          <t>$(\eta_{p})_{1}$</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5.187626162796567e-07</v>
+        <v>3.736497162409213e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.908859395273056e-08</v>
+        <v>2.301740199921175e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1638,124 +1638,124 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.81480669921059e-08</v>
+        <v>1.8729973631225e-08</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.754263001467745e-08</v>
+        <v>1.675691880274835e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{2}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.720690024534217e-08</v>
+        <v>1.581291491316772e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.408851893243206e-08</v>
+        <v>1.351197923590519e-08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.376345830374392e-08</v>
+        <v>1.236383399830115e-08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.137618798555814e-08</v>
+        <v>7.746352843261796e-09</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1.059472692718713e-08</v>
+        <v>6.060838160530408e-09</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9.470231623012387e-09</v>
+        <v>5.807800180070509e-09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>9.444187752210957e-09</v>
+        <v>4.863780410225193e-09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6.466040859323443e-09</v>
+        <v>3.274894539521147e-09</v>
       </c>
     </row>
     <row r="103">
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2.475878837094508e-09</v>
+        <v>4.190068683019831e-10</v>
       </c>
     </row>
   </sheetData>

--- a/ozone/ozone_VTZP_SHAP.xlsx
+++ b/ozone/ozone_VTZP_SHAP.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003451937919490256</v>
+        <v>0.003446660977041448</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.002174424256882952</v>
+        <v>0.002160964673865165</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.002063949932462754</v>
+        <v>0.00205518710983436</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.001278763926158885</v>
+        <v>0.00126050927124659</v>
       </c>
     </row>
     <row r="6">
@@ -507,33 +507,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0005265073138351496</v>
+        <v>0.00052374885992237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>h$_{s}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0005052532361994914</v>
+        <v>0.0005099664783605427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{3}$</t>
+          <t>h$_{s}$</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0005029599529687292</v>
+        <v>0.000504635293229658</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.000423126794535495</v>
+        <v>0.0004146147003472702</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0003997944618417414</v>
+        <v>0.0004031270829274709</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0003097026208987869</v>
+        <v>0.0003057051804171959</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002668173377425682</v>
+        <v>0.0002779823075480385</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0002367816917222445</v>
+        <v>0.0002379212747937461</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0002216883783231014</v>
+        <v>0.0002235505157152333</v>
       </c>
     </row>
     <row r="15">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0002184855760046509</v>
+        <v>0.0002213682046600481</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0002041136020256109</v>
+        <v>0.0002069325822753624</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0001625398327072145</v>
+        <v>0.0001621844844399651</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0001416810574892402</v>
+        <v>0.0001398360896887679</v>
       </c>
     </row>
     <row r="19">
@@ -676,72 +676,72 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000132359584053288</v>
+        <v>0.0001329767092078962</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0001024871207545312</v>
+        <v>9.94876346669489e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{3}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{3}$</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001008854184642631</v>
+        <v>9.761294068892835e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(h$_{p}$)$_{0}$</t>
+          <t>$\omega_{s}$</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.085692717647688e-05</v>
+        <v>9.026806099424401e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$\omega_{s}$</t>
+          <t>(h$_{r}$)$_{1}$</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8.958136837734933e-05</v>
+        <v>8.982324741804498e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{1}$</t>
+          <t>(h$_{p}$)$_{0}$</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8.615430263815464e-05</v>
+        <v>8.719282859145874e-05</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.261384398590614e-05</v>
+        <v>8.183499067569418e-05</v>
       </c>
     </row>
     <row r="26">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>8.173308377374262e-05</v>
+        <v>7.980998117988245e-05</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7.676615832362616e-05</v>
+        <v>7.522126229108103e-05</v>
       </c>
     </row>
     <row r="28">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7.657206567481889e-05</v>
+        <v>7.481188283981087e-05</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7.198766389611014e-05</v>
+        <v>7.043309937339914e-05</v>
       </c>
     </row>
     <row r="30">
@@ -815,37 +815,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>type_0</t>
+          <t>$type_0$</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6.758690755563884e-05</v>
+        <v>6.779890446530833e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
+          <t>$type_3$</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.442784661287518e-05</v>
+        <v>5.548180812769265e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>type_3</t>
+          <t>$(\langle rs\vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.297811058123772e-05</v>
+        <v>5.373589372786265e-05</v>
       </c>
     </row>
     <row r="33">
@@ -858,59 +858,59 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4.527378880840322e-05</v>
+        <v>4.325242579779699e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>(h$_{pq}$)$_{3}$</t>
+          <t>(h$_{pr}$)$_{3}$</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4.333149484771969e-05</v>
+        <v>4.281566877378464e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
+          <t>$type_2$</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.243899784766316e-05</v>
+        <v>4.245443704289294e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>type_2</t>
+          <t>$(F_{r}^{\text{SCF}})_{2}$</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.169304120285888e-05</v>
+        <v>4.198030617763214e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{3}$</t>
+          <t>(h$_{pq}$)$_{3}$</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.154300782482745e-05</v>
+        <v>3.820351053803304e-05</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.415737606811432e-05</v>
+        <v>3.558342959781458e-05</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.365592709574874e-05</v>
+        <v>3.385629234386257e-05</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.06058726696013e-05</v>
+        <v>3.044589311725847e-05</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2.97136497841402e-05</v>
+        <v>2.944032981735267e-05</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.764108534118914e-05</v>
+        <v>2.680454687077212e-05</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2.599747166957288e-05</v>
+        <v>2.315188576144466e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1001,111 +1001,111 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.927092727293902e-05</v>
+        <v>1.948723014251444e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>type_1</t>
+          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.899634361467679e-05</v>
+        <v>1.933138834637615e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
+          <t>$type_1$</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.890231684228599e-05</v>
+        <v>1.883193482685129e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{3}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.882879100141476e-05</v>
+        <v>1.873434230865637e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{0}$</t>
+          <t>(h$_{r}$)$_{0}$</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.875840144161789e-05</v>
+        <v>1.857098304700104e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
+          <t>$(\langle rs \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.827180048370134e-05</v>
+        <v>1.842949236702794e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>(h$_{r}$)$_{0}$</t>
+          <t>$(\langle pq \vert pq \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.82408418420414e-05</v>
+        <v>1.835849104130036e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$\eta_{q}$</t>
+          <t>$(F_{p})_{2}$</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.777120928459473e-05</v>
+        <v>1.764572008767405e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$(F_{p})_{2}$</t>
+          <t>$\eta_{q}$</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.771945217078104e-05</v>
+        <v>1.760644933690176e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.688504416246849e-05</v>
+        <v>1.730879272033458e-05</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.637921612600122e-05</v>
+        <v>1.674965394408674e-05</v>
       </c>
     </row>
     <row r="55">
@@ -1144,98 +1144,98 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.543440494995655e-05</v>
+        <v>1.619802581697212e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.486528247531807e-05</v>
+        <v>1.517330036470926e-05</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.476946652795001e-05</v>
+        <v>1.517069909246707e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{0}$</t>
+          <t>(h$_{pr}$)$_{2}$</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.46860767990808e-05</v>
+        <v>1.511796343891803e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{2}$</t>
+          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.430661841067594e-05</v>
+        <v>1.440133671070291e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$(\langle pp \vert pp \rangle)_{2}$</t>
+          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.389855959298695e-05</v>
+        <v>1.383554490112668e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$(F_{r}^{\text{SCF}})_{1}$</t>
+          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.387583807824674e-05</v>
+        <v>1.358726023086349e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert qp \rangle)_{0}$</t>
+          <t>(h$_{rs}$)$_{0}$</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1.363481643619575e-05</v>
+        <v>1.325025488683811e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.289061536843044e-05</v>
+        <v>1.289826393338255e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.238307962696959e-05</v>
+        <v>1.250119375764486e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.216328619537913e-05</v>
+        <v>1.212607684090351e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.089681647703911e-05</v>
+        <v>1.100965681964652e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.044997807021348e-05</v>
+        <v>1.092965152199026e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9.546882602231099e-06</v>
+        <v>9.456982950884638e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9.092133689532084e-06</v>
+        <v>8.922621727618822e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8.724301742754743e-06</v>
+        <v>8.378323564669139e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.102920859533855e-06</v>
+        <v>7.323161761970745e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6.969569692280081e-06</v>
+        <v>6.771679138449278e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1378,33 +1378,33 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5.242882679187686e-06</v>
+        <v>5.090703376415333e-06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
+          <t>(h$_{rs}$)$_{2}$</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.738607483292845e-06</v>
+        <v>4.717674171151245e-06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>(h$_{rs}$)$_{2}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{2}$</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4.66194168901706e-06</v>
+        <v>4.501674612923417e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.032357452569731e-06</v>
+        <v>4.195660160895082e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3.966300150926133e-06</v>
+        <v>4.048408388486774e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1443,33 +1443,33 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3.641995801931504e-06</v>
+        <v>3.658947027187468e-06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$(\eta_{r})_{2}$</t>
+          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3.628809335402092e-06</v>
+        <v>3.641383486404432e-06</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert rs \rangle)_{0}$</t>
+          <t>$(\eta_{r})_{2}$</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3.441908802092485e-06</v>
+        <v>3.590597875563307e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3.068620634200842e-06</v>
+        <v>3.130796095709644e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2.348573839717578e-06</v>
+        <v>2.343890797644591e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.269776099189785e-06</v>
+        <v>2.283290833164663e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.177048988093499e-06</v>
+        <v>2.191389085705043e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1534,33 +1534,33 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.985663425270344e-06</v>
+        <v>2.017450638157015e-06</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>(h$_{pr}$)$_{0}$</t>
+          <t>$(\eta_{p})_{0}$</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.666568415716128e-06</v>
+        <v>1.588849063971129e-06</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$(\eta_{p})_{0}$</t>
+          <t>(h$_{pr}$)$_{0}$</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.533878974283268e-06</v>
+        <v>1.535768869465544e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.323603591546073e-06</v>
+        <v>1.356590272254233e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1.253227205356783e-06</v>
+        <v>1.234233973933783e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5.512647892298724e-07</v>
+        <v>5.112161791283465e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1612,33 +1612,33 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.736497162409213e-07</v>
+        <v>4.87853489292635e-07</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
+          <t>$(\omega_{p})_{2}$</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.301740199921175e-08</v>
+        <v>3.553906317867234e-08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{2}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{1}$</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.8729973631225e-08</v>
+        <v>2.503750036935108e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1651,124 +1651,124 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.675691880274835e-08</v>
+        <v>2.368841188576183e-08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{0}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.581291491316772e-08</v>
+        <v>1.977334433011614e-08</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{0}$</t>
+          <t>$(\omega_{p})_{1}$</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.351197923590519e-08</v>
+        <v>1.213317707819562e-08</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$(\omega_{p})_{1}$</t>
+          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1.236383399830115e-08</v>
+        <v>1.184095514461427e-08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{1}$</t>
+          <t>$(\omega_{r})_{0}$</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.746352843261796e-09</v>
+        <v>1.162288160688538e-08</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{0}$</t>
+          <t>$\mathbf{b}$</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6.060838160530408e-09</v>
+        <v>9.375613312382174e-09</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{2}$</t>
+          <t>$(\omega_{r})_{1}$</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5.807800180070509e-09</v>
+        <v>8.866639917948301e-09</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$(\omega_{r})_{3}$</t>
+          <t>$(\omega_{p})_{0}$</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4.863780410225193e-09</v>
+        <v>6.857644683472471e-09</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$(\langle pq \vert sr \rangle)_{3}$</t>
+          <t>$(\omega_{r})_{3}$</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3.274894539521147e-09</v>
+        <v>4.624722805289473e-09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$\mathbf{b}$</t>
+          <t>$(\omega_{r})_{2}$</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>4.190068683019831e-10</v>
+        <v>4.399441666791566e-09</v>
       </c>
     </row>
   </sheetData>
